--- a/DGP5.xlsx
+++ b/DGP5.xlsx
@@ -422,7 +422,7 @@
         <v>0.915</v>
       </c>
       <c r="G2" t="n">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.897</v>
+        <v>0.908</v>
       </c>
       <c r="G3" t="n">
-        <v>0.918</v>
+        <v>0.9285</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.888</v>
+        <v>0.903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.91</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.889</v>
+        <v>0.9015</v>
       </c>
       <c r="G5" t="n">
-        <v>0.91</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.907</v>
+        <v>0.8995</v>
       </c>
       <c r="G6" t="n">
-        <v>0.926</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.892</v>
+        <v>0.897</v>
       </c>
       <c r="G7" t="n">
-        <v>0.915</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.897</v>
+        <v>0.9005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.897</v>
+        <v>0.8965</v>
       </c>
       <c r="G9" t="n">
-        <v>0.919</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.905</v>
+        <v>0.902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.93</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.895</v>
+        <v>0.8995</v>
       </c>
       <c r="G11" t="n">
-        <v>0.915</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.885302492662</v>
+        <v>26.6297234302532</v>
       </c>
       <c r="G12" t="n">
-        <v>26.3084015699043</v>
+        <v>26.1923511495926</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.1512587178648</v>
+        <v>27.0869417352198</v>
       </c>
       <c r="G13" t="n">
-        <v>26.8300105801263</v>
+        <v>26.773434952989</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.406669054532</v>
+        <v>27.2751268100724</v>
       </c>
       <c r="G14" t="n">
-        <v>26.7131562283426</v>
+        <v>26.7665958744062</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.3534090257007</v>
+        <v>27.3120798866991</v>
       </c>
       <c r="G15" t="n">
-        <v>27.1141978137159</v>
+        <v>26.9787232105704</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.3467246889315</v>
+        <v>27.2949455040049</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0939098742919</v>
+        <v>27.0948220691087</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.357207547656</v>
+        <v>27.2409560253616</v>
       </c>
       <c r="G17" t="n">
-        <v>27.1208386677939</v>
+        <v>27.082170279795</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.9030784406407</v>
+        <v>27.6311380366816</v>
       </c>
       <c r="G18" t="n">
-        <v>27.4023013025346</v>
+        <v>27.0690767659359</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.7244635129986</v>
+        <v>27.3691324190483</v>
       </c>
       <c r="G19" t="n">
-        <v>27.3640350267413</v>
+        <v>27.12998516412</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.7108897776775</v>
+        <v>27.5388458411708</v>
       </c>
       <c r="G20" t="n">
-        <v>27.6534038143704</v>
+        <v>27.1942629986905</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.7943798881742</v>
+        <v>27.7030156706544</v>
       </c>
       <c r="G21" t="n">
-        <v>27.38337474159</v>
+        <v>27.3074552482321</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>49.4024244785157</v>
+        <v>48.0531815801723</v>
       </c>
       <c r="G22" t="n">
-        <v>32.8527690402714</v>
+        <v>31.4282690766765</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>53.9378534358233</v>
+        <v>51.9495494011023</v>
       </c>
       <c r="G23" t="n">
-        <v>36.418546561892</v>
+        <v>34.4855633804174</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>59.2831242891315</v>
+        <v>54.4597336191031</v>
       </c>
       <c r="G24" t="n">
-        <v>39.1128026944172</v>
+        <v>36.8714231996334</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>55.7721084533475</v>
+        <v>54.0159625343766</v>
       </c>
       <c r="G25" t="n">
-        <v>37.876612144154</v>
+        <v>36.1571463501873</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>54.9876286808412</v>
+        <v>56.1889008315838</v>
       </c>
       <c r="G26" t="n">
-        <v>37.8274579288068</v>
+        <v>38.0908724005936</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>59.3309248739217</v>
+        <v>58.1464732252841</v>
       </c>
       <c r="G27" t="n">
-        <v>39.0110880851228</v>
+        <v>39.0333360891892</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>60.6153826987684</v>
+        <v>57.1044135871956</v>
       </c>
       <c r="G28" t="n">
-        <v>40.8083632038148</v>
+        <v>39.1509555148018</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>65.1284914282288</v>
+        <v>60.7597708843263</v>
       </c>
       <c r="G29" t="n">
-        <v>44.7875856964732</v>
+        <v>42.1354278037998</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>63.5945660572012</v>
+        <v>58.8631106342767</v>
       </c>
       <c r="G30" t="n">
-        <v>44.1803306674331</v>
+        <v>41.0755209182261</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>61.9039448956212</v>
+        <v>59.8720383515963</v>
       </c>
       <c r="G31" t="n">
-        <v>44.3137080667092</v>
+        <v>41.4014611561444</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.26113379767531</v>
+        <v>4.17797201825087</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1819340518743</v>
+        <v>3.15896391001334</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.30081273362273</v>
+        <v>4.32091115953355</v>
       </c>
       <c r="G33" t="n">
-        <v>3.16226214350325</v>
+        <v>3.2115008433669</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.4270548851579</v>
+        <v>4.36703021998228</v>
       </c>
       <c r="G34" t="n">
-        <v>3.31250975258579</v>
+        <v>3.29180194612468</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.71658676383485</v>
+        <v>4.63265307089014</v>
       </c>
       <c r="G35" t="n">
-        <v>3.49272195698861</v>
+        <v>3.45089352224451</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.37876405498789</v>
+        <v>4.33610487189448</v>
       </c>
       <c r="G36" t="n">
-        <v>3.38138008155128</v>
+        <v>3.37988896094738</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.72359657968393</v>
+        <v>4.69723500978083</v>
       </c>
       <c r="G37" t="n">
-        <v>3.58137842941206</v>
+        <v>3.55581759801513</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.50839868081537</v>
+        <v>4.41272961167043</v>
       </c>
       <c r="G38" t="n">
-        <v>3.24542675852113</v>
+        <v>3.29726279171035</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.60115872883789</v>
+        <v>4.63940629910232</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3347646633682</v>
+        <v>3.4963216509892</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.33743517187671</v>
+        <v>4.28637276296704</v>
       </c>
       <c r="G40" t="n">
-        <v>3.23237532754986</v>
+        <v>3.30852178857876</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.89904941985332</v>
+        <v>4.58311437806932</v>
       </c>
       <c r="G41" t="n">
-        <v>3.51843167093458</v>
+        <v>3.3342564237218</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.935</v>
+        <v>0.946</v>
       </c>
       <c r="G42" t="n">
-        <v>0.962</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.935</v>
+        <v>0.9275</v>
       </c>
       <c r="G43" t="n">
-        <v>0.96</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.929</v>
+        <v>0.9295</v>
       </c>
       <c r="G44" t="n">
-        <v>0.956</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.923</v>
+        <v>0.9235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.955</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.922</v>
+        <v>0.9305</v>
       </c>
       <c r="G46" t="n">
-        <v>0.958</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.92</v>
+        <v>0.9285</v>
       </c>
       <c r="G47" t="n">
-        <v>0.946</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.923</v>
+        <v>0.927</v>
       </c>
       <c r="G48" t="n">
-        <v>0.957</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.925</v>
+        <v>0.9295</v>
       </c>
       <c r="G49" t="n">
-        <v>0.95</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.905</v>
+        <v>0.917</v>
       </c>
       <c r="G50" t="n">
-        <v>0.956</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.921</v>
+        <v>0.9105</v>
       </c>
       <c r="G51" t="n">
-        <v>0.952</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>25.5636665629669</v>
+        <v>26.2168356736919</v>
       </c>
       <c r="G52" t="n">
-        <v>24.2955972686052</v>
+        <v>24.4228983475119</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>25.8014055027887</v>
+        <v>26.19199199894</v>
       </c>
       <c r="G53" t="n">
-        <v>24.6843554890379</v>
+        <v>24.6109328782373</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.0814772392013</v>
+        <v>26.3036324079345</v>
       </c>
       <c r="G54" t="n">
-        <v>24.6067009730226</v>
+        <v>24.7238106323753</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.0078467699549</v>
+        <v>26.4393880175646</v>
       </c>
       <c r="G55" t="n">
-        <v>24.9177108677146</v>
+        <v>24.7483914161485</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.1480023726958</v>
+        <v>26.4793468076599</v>
       </c>
       <c r="G56" t="n">
-        <v>24.720282994765</v>
+        <v>24.8697332663029</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>25.8228885156843</v>
+        <v>26.6120521958241</v>
       </c>
       <c r="G57" t="n">
-        <v>24.3856117220785</v>
+        <v>25.0423151584095</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>25.9836382481221</v>
+        <v>26.6707794040896</v>
       </c>
       <c r="G58" t="n">
-        <v>24.7338996136015</v>
+        <v>25.4378126176904</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.1512973931304</v>
+        <v>26.6479913650313</v>
       </c>
       <c r="G59" t="n">
-        <v>24.7718730580267</v>
+        <v>25.2821972122218</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.1618775113198</v>
+        <v>26.5675127288778</v>
       </c>
       <c r="G60" t="n">
-        <v>24.8841318472677</v>
+        <v>25.4046658085479</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.2154470021385</v>
+        <v>26.5966082465341</v>
       </c>
       <c r="G61" t="n">
-        <v>24.8703424835474</v>
+        <v>25.1519032385996</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>38.2190729144186</v>
+        <v>39.9982026185084</v>
       </c>
       <c r="G62" t="n">
-        <v>20.8877087008186</v>
+        <v>21.2779591145915</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>43.4354931440467</v>
+        <v>42.5434378280494</v>
       </c>
       <c r="G63" t="n">
-        <v>24.4917495567405</v>
+        <v>23.6344057438631</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>43.2956210057954</v>
+        <v>45.127168862162</v>
       </c>
       <c r="G64" t="n">
-        <v>23.5929386122496</v>
+        <v>24.6366919989723</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>46.5758179225955</v>
+        <v>47.8709000352259</v>
       </c>
       <c r="G65" t="n">
-        <v>25.9646678974392</v>
+        <v>26.7572683119343</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>45.0155860195913</v>
+        <v>44.3094442879734</v>
       </c>
       <c r="G66" t="n">
-        <v>25.1394305362934</v>
+        <v>24.8823759113658</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>47.6180949114838</v>
+        <v>47.771888712847</v>
       </c>
       <c r="G67" t="n">
-        <v>27.7523550847309</v>
+        <v>26.3020840063223</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>46.5436230438228</v>
+        <v>49.8087513977978</v>
       </c>
       <c r="G68" t="n">
-        <v>26.687952310927</v>
+        <v>27.194675569486</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>48.189957478979</v>
+        <v>52.1294773280943</v>
       </c>
       <c r="G69" t="n">
-        <v>27.7547243119741</v>
+        <v>29.5907460886816</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>50.3774961451336</v>
+        <v>51.8576558904351</v>
       </c>
       <c r="G70" t="n">
-        <v>28.9618310971288</v>
+        <v>29.3904622854845</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>50.3870325705425</v>
+        <v>53.6331970577781</v>
       </c>
       <c r="G71" t="n">
-        <v>28.0827673854457</v>
+        <v>30.5833923047805</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.07696121393549</v>
+        <v>4.05487235865702</v>
       </c>
       <c r="G72" t="n">
-        <v>2.70538892818949</v>
+        <v>2.69544127366244</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.30052227413455</v>
+        <v>4.08674945719679</v>
       </c>
       <c r="G73" t="n">
-        <v>2.94658711716679</v>
+        <v>2.68703759183588</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.25402443561604</v>
+        <v>4.26367454954683</v>
       </c>
       <c r="G74" t="n">
-        <v>2.7995993392591</v>
+        <v>2.8973115736604</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.26110368607742</v>
+        <v>4.34546528516285</v>
       </c>
       <c r="G75" t="n">
-        <v>2.85575097087654</v>
+        <v>2.95354754627471</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.18188834539098</v>
+        <v>4.06176949492398</v>
       </c>
       <c r="G76" t="n">
-        <v>2.80782505423709</v>
+        <v>2.75447776723153</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.37216892054279</v>
+        <v>4.15965201265492</v>
       </c>
       <c r="G77" t="n">
-        <v>2.72233138431821</v>
+        <v>2.81114764715427</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.26618813415233</v>
+        <v>4.3671292447212</v>
       </c>
       <c r="G78" t="n">
-        <v>2.84823101379699</v>
+        <v>2.91925752648262</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.04468822853113</v>
+        <v>4.43670734566566</v>
       </c>
       <c r="G79" t="n">
-        <v>2.74933146833036</v>
+        <v>2.85051464951911</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.45517002392462</v>
+        <v>4.28104703839406</v>
       </c>
       <c r="G80" t="n">
-        <v>2.63245060677721</v>
+        <v>2.87718712084451</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.42534644791547</v>
+        <v>4.19090842267699</v>
       </c>
       <c r="G81" t="n">
-        <v>2.76742052453259</v>
+        <v>2.95626871689318</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.914</v>
+        <v>0.9185</v>
       </c>
       <c r="G82" t="n">
-        <v>0.928</v>
+        <v>0.933</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.926</v>
+        <v>0.9195</v>
       </c>
       <c r="G83" t="n">
-        <v>0.937</v>
+        <v>0.934</v>
       </c>
     </row>
     <row r="84">
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.918</v>
+        <v>0.9205</v>
       </c>
       <c r="G84" t="n">
-        <v>0.929</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.908</v>
+        <v>0.909</v>
       </c>
       <c r="G85" t="n">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.905</v>
+        <v>0.896</v>
       </c>
       <c r="G86" t="n">
-        <v>0.924</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9</v>
+        <v>0.906</v>
       </c>
       <c r="G87" t="n">
-        <v>0.923</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="88">
@@ -2397,7 +2397,7 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.898</v>
+        <v>0.897</v>
       </c>
       <c r="G88" t="n">
         <v>0.916</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.902</v>
+        <v>0.898</v>
       </c>
       <c r="G89" t="n">
-        <v>0.928</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.908</v>
+        <v>0.8985</v>
       </c>
       <c r="G90" t="n">
-        <v>0.932</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.911</v>
+        <v>0.9065</v>
       </c>
       <c r="G91" t="n">
-        <v>0.938</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.4559570635464</v>
+        <v>26.3327540756092</v>
       </c>
       <c r="G92" t="n">
-        <v>26.4258687406219</v>
+        <v>26.3563559281611</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>27.0442573694637</v>
+        <v>26.7553690117788</v>
       </c>
       <c r="G93" t="n">
-        <v>27.1094138537155</v>
+        <v>26.8404001519078</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>27.1191872795279</v>
+        <v>26.9936686345072</v>
       </c>
       <c r="G94" t="n">
-        <v>27.1878838958935</v>
+        <v>27.0253851579627</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>27.313246627927</v>
+        <v>26.8242956138144</v>
       </c>
       <c r="G95" t="n">
-        <v>27.3844346534453</v>
+        <v>26.9683514923179</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.3834631358859</v>
+        <v>27.0426582654778</v>
       </c>
       <c r="G96" t="n">
-        <v>27.6529062624451</v>
+        <v>27.3046634563037</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.2313120753506</v>
+        <v>27.0456073711533</v>
       </c>
       <c r="G97" t="n">
-        <v>27.1738476536637</v>
+        <v>27.0515677997623</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>27.0065491058359</v>
+        <v>26.8393521603505</v>
       </c>
       <c r="G98" t="n">
-        <v>27.2249521715265</v>
+        <v>27.2154216543862</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.2276448656626</v>
+        <v>27.0553891403367</v>
       </c>
       <c r="G99" t="n">
-        <v>27.2212862347974</v>
+        <v>27.106908246156</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.1311288088468</v>
+        <v>27.0303203441708</v>
       </c>
       <c r="G100" t="n">
-        <v>27.5660448996423</v>
+        <v>27.2911211162674</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.100864182025</v>
+        <v>27.0684731774675</v>
       </c>
       <c r="G101" t="n">
-        <v>27.3651286390511</v>
+        <v>27.3832957773099</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>40.4346875235071</v>
+        <v>39.6869701630238</v>
       </c>
       <c r="G102" t="n">
-        <v>28.9746723168854</v>
+        <v>29.1011816369582</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>46.3532644167735</v>
+        <v>46.8312387257986</v>
       </c>
       <c r="G103" t="n">
-        <v>34.2517038446489</v>
+        <v>34.8313902359195</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>47.584083098705</v>
+        <v>49.2168944143936</v>
       </c>
       <c r="G104" t="n">
-        <v>34.3654183074175</v>
+        <v>35.5949385152576</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>52.8040103632373</v>
+        <v>51.7451796043136</v>
       </c>
       <c r="G105" t="n">
-        <v>38.086517389397</v>
+        <v>37.4984386996517</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>52.6579974864297</v>
+        <v>53.4397829484237</v>
       </c>
       <c r="G106" t="n">
-        <v>39.1943481249683</v>
+        <v>39.7423557422954</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>52.754675875187</v>
+        <v>51.7529699215513</v>
       </c>
       <c r="G107" t="n">
-        <v>38.201469575928</v>
+        <v>36.923009819595</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>55.3061039542084</v>
+        <v>55.3959704982343</v>
       </c>
       <c r="G108" t="n">
-        <v>42.5314910747448</v>
+        <v>42.2242403531345</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>54.3499880551171</v>
+        <v>57.1516700119281</v>
       </c>
       <c r="G109" t="n">
-        <v>39.225777487855</v>
+        <v>41.0149946294153</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>58.0706934250602</v>
+        <v>58.8684374250874</v>
       </c>
       <c r="G110" t="n">
-        <v>42.3850287231005</v>
+        <v>43.6395593724438</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>57.9595505117085</v>
+        <v>57.7824062303376</v>
       </c>
       <c r="G111" t="n">
-        <v>41.5982438251242</v>
+        <v>42.1437451740007</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>3.98928843048124</v>
+        <v>4.00677613573977</v>
       </c>
       <c r="G112" t="n">
-        <v>3.29882058023279</v>
+        <v>3.27284433916769</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.26571371563006</v>
+        <v>4.31972834383803</v>
       </c>
       <c r="G113" t="n">
-        <v>3.40533094563435</v>
+        <v>3.43967178670801</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.58982503275781</v>
+        <v>4.48937831379135</v>
       </c>
       <c r="G114" t="n">
-        <v>3.50479668927227</v>
+        <v>3.4319277172511</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.42520400307447</v>
+        <v>4.43606907010689</v>
       </c>
       <c r="G115" t="n">
-        <v>3.72872910530164</v>
+        <v>3.58625446712707</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.45746586732589</v>
+        <v>4.55712011187118</v>
       </c>
       <c r="G116" t="n">
-        <v>3.45109048442152</v>
+        <v>3.59476401535066</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.45391760140734</v>
+        <v>4.52999142812031</v>
       </c>
       <c r="G117" t="n">
-        <v>3.46076943122944</v>
+        <v>3.50130118615671</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.73906309902587</v>
+        <v>4.53281742051102</v>
       </c>
       <c r="G118" t="n">
-        <v>3.63991938234603</v>
+        <v>3.59376090395787</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.17800475172688</v>
+        <v>4.38920875399603</v>
       </c>
       <c r="G119" t="n">
-        <v>3.44305697553023</v>
+        <v>3.48844137615673</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.55625224435897</v>
+        <v>4.50796961696619</v>
       </c>
       <c r="G120" t="n">
-        <v>3.55253141100277</v>
+        <v>3.60452128249521</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.9440628210661</v>
+        <v>4.66539788440441</v>
       </c>
       <c r="G121" t="n">
-        <v>3.69486952304394</v>
+        <v>3.65174873069214</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.942</v>
+        <v>0.9505</v>
       </c>
       <c r="G122" t="n">
-        <v>0.969</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.933</v>
+        <v>0.932</v>
       </c>
       <c r="G123" t="n">
-        <v>0.953</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.921</v>
+        <v>0.92</v>
       </c>
       <c r="G124" t="n">
-        <v>0.942</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.927</v>
+        <v>0.928</v>
       </c>
       <c r="G125" t="n">
-        <v>0.952</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
       <c r="G126" t="n">
-        <v>0.957</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="127">
@@ -3297,7 +3297,7 @@
         <v>0.918</v>
       </c>
       <c r="G127" t="n">
-        <v>0.947</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="128">
@@ -3317,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.923</v>
+        <v>0.929</v>
       </c>
       <c r="G128" t="n">
         <v>0.954</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.931</v>
+        <v>0.9315</v>
       </c>
       <c r="G129" t="n">
-        <v>0.951</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.923</v>
+        <v>0.9245</v>
       </c>
       <c r="G130" t="n">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.929</v>
+        <v>0.9265</v>
       </c>
       <c r="G131" t="n">
-        <v>0.958</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.1435564541845</v>
+        <v>25.9549511601385</v>
       </c>
       <c r="G132" t="n">
-        <v>24.6091657350329</v>
+        <v>24.5456388972315</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.61973104131</v>
+        <v>26.0439357133788</v>
       </c>
       <c r="G133" t="n">
-        <v>25.2679604660983</v>
+        <v>25.0862991899034</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.7472628787481</v>
+        <v>26.3820433188009</v>
       </c>
       <c r="G134" t="n">
-        <v>25.3049458705344</v>
+        <v>25.1643210709879</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.9046456593287</v>
+        <v>26.4466610214027</v>
       </c>
       <c r="G135" t="n">
-        <v>25.5003340216835</v>
+        <v>25.2808117461139</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.6981674810543</v>
+        <v>26.6612818076041</v>
       </c>
       <c r="G136" t="n">
-        <v>25.6023082845108</v>
+        <v>25.5048966257015</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.8386728010338</v>
+        <v>26.2997095326009</v>
       </c>
       <c r="G137" t="n">
-        <v>25.6230114590303</v>
+        <v>25.2688091389292</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.6686313608672</v>
+        <v>26.5087736687666</v>
       </c>
       <c r="G138" t="n">
-        <v>25.4109713135264</v>
+        <v>25.4713434786331</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.6387788454556</v>
+        <v>26.4654288286077</v>
       </c>
       <c r="G139" t="n">
-        <v>25.4567441472313</v>
+        <v>25.4440125883167</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.7035406196479</v>
+        <v>26.6201825958209</v>
       </c>
       <c r="G140" t="n">
-        <v>25.5746890155764</v>
+        <v>25.6291906670221</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>27.1262509750824</v>
+        <v>26.5210083389261</v>
       </c>
       <c r="G141" t="n">
-        <v>25.5327037753353</v>
+        <v>25.4780069417032</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>39.0458472000151</v>
+        <v>37.5360773149028</v>
       </c>
       <c r="G142" t="n">
-        <v>22.1169009160781</v>
+        <v>22.349436449643</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>43.7250188562037</v>
+        <v>43.2234092618734</v>
       </c>
       <c r="G143" t="n">
-        <v>25.6657816003951</v>
+        <v>25.8138939840296</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>49.5323258941528</v>
+        <v>43.7928755617751</v>
       </c>
       <c r="G144" t="n">
-        <v>28.9817653550934</v>
+        <v>25.9810394104182</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>48.5634546099123</v>
+        <v>45.0495638069099</v>
       </c>
       <c r="G145" t="n">
-        <v>28.9448559818851</v>
+        <v>26.6602352847974</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>46.669840166886</v>
+        <v>48.7615421669258</v>
       </c>
       <c r="G146" t="n">
-        <v>27.6149355020753</v>
+        <v>29.4433054922735</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>51.4133455680109</v>
+        <v>47.5099771540814</v>
       </c>
       <c r="G147" t="n">
-        <v>29.3211393778453</v>
+        <v>28.9393412383365</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>49.8875996305567</v>
+        <v>47.9737698700139</v>
       </c>
       <c r="G148" t="n">
-        <v>28.6168765512875</v>
+        <v>29.079809032406</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>44.6822985408543</v>
+        <v>48.5507576558955</v>
       </c>
       <c r="G149" t="n">
-        <v>26.7549114858496</v>
+        <v>28.5255494854364</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>45.7463687943496</v>
+        <v>50.0791240814998</v>
       </c>
       <c r="G150" t="n">
-        <v>26.580006594939</v>
+        <v>29.8061380175608</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>46.9877955240083</v>
+        <v>46.8014915793051</v>
       </c>
       <c r="G151" t="n">
-        <v>27.2826186624025</v>
+        <v>27.9914455425218</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>4.07613985562614</v>
+        <v>3.91277336032888</v>
       </c>
       <c r="G152" t="n">
-        <v>2.66478432819142</v>
+        <v>2.76059049445576</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.15768125692126</v>
+        <v>4.27012282861754</v>
       </c>
       <c r="G153" t="n">
-        <v>2.81843256808947</v>
+        <v>2.88883571517274</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.11899223873137</v>
+        <v>4.22946943546681</v>
       </c>
       <c r="G154" t="n">
-        <v>2.86187704059229</v>
+        <v>3.01365472848008</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.23605139199962</v>
+        <v>4.11521356181907</v>
       </c>
       <c r="G155" t="n">
-        <v>2.96230252683259</v>
+        <v>2.74721439587399</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.37302171028709</v>
+        <v>4.12137176502135</v>
       </c>
       <c r="G156" t="n">
-        <v>3.01259087531805</v>
+        <v>2.92090738038319</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.3020241418289</v>
+        <v>4.38231607365289</v>
       </c>
       <c r="G157" t="n">
-        <v>2.88880330711565</v>
+        <v>2.98094203899405</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.4017429521253</v>
+        <v>4.33210202930681</v>
       </c>
       <c r="G158" t="n">
-        <v>2.97698044371209</v>
+        <v>2.99017773054427</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.39604630393611</v>
+        <v>4.38753533886978</v>
       </c>
       <c r="G159" t="n">
-        <v>3.04649296755685</v>
+        <v>3.00798804143266</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.25157908298871</v>
+        <v>4.37847253702472</v>
       </c>
       <c r="G160" t="n">
-        <v>2.98272052658887</v>
+        <v>2.88058260409158</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.29584590525745</v>
+        <v>4.33444911333126</v>
       </c>
       <c r="G161" t="n">
-        <v>2.87523328706944</v>
+        <v>2.96596380430094</v>
       </c>
     </row>
   </sheetData>

--- a/DGP5.xlsx
+++ b/DGP5.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.915</v>
+        <v>0.9135</v>
       </c>
       <c r="G2" t="n">
-        <v>0.93</v>
+        <v>0.9285</v>
       </c>
     </row>
     <row r="3">
@@ -442,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.908</v>
+        <v>0.904</v>
       </c>
       <c r="G3" t="n">
         <v>0.9285</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.903</v>
+        <v>0.9065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9235</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9015</v>
+        <v>0.906</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9225</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8995</v>
+        <v>0.906</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9225</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.897</v>
+        <v>0.8965</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9175</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9005</v>
+        <v>0.8995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.923</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8965</v>
+        <v>0.891</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9195</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9235</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8995</v>
+        <v>0.896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9205</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.6297234302532</v>
+        <v>26.719834176232</v>
       </c>
       <c r="G12" t="n">
-        <v>26.1923511495926</v>
+        <v>26.2747794295069</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.0869417352198</v>
+        <v>27.0597810022805</v>
       </c>
       <c r="G13" t="n">
-        <v>26.773434952989</v>
+        <v>26.7146317765972</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.2751268100724</v>
+        <v>27.3476311260602</v>
       </c>
       <c r="G14" t="n">
-        <v>26.7665958744062</v>
+        <v>26.7679481235127</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.3120798866991</v>
+        <v>27.361613325306</v>
       </c>
       <c r="G15" t="n">
-        <v>26.9787232105704</v>
+        <v>27.0156438429402</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.2949455040049</v>
+        <v>27.5582852576208</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0948220691087</v>
+        <v>27.1594363873939</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.2409560253616</v>
+        <v>27.3963285436855</v>
       </c>
       <c r="G17" t="n">
-        <v>27.082170279795</v>
+        <v>27.0102687982163</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.6311380366816</v>
+        <v>27.5141087630111</v>
       </c>
       <c r="G18" t="n">
-        <v>27.0690767659359</v>
+        <v>27.2037451451016</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.3691324190483</v>
+        <v>27.2420306398878</v>
       </c>
       <c r="G19" t="n">
-        <v>27.12998516412</v>
+        <v>27.0079607031341</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.5388458411708</v>
+        <v>27.5503450245525</v>
       </c>
       <c r="G20" t="n">
-        <v>27.1942629986905</v>
+        <v>27.1825189985822</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.7030156706544</v>
+        <v>27.7985646799604</v>
       </c>
       <c r="G21" t="n">
-        <v>27.3074552482321</v>
+        <v>27.4887210467432</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>48.0531815801723</v>
+        <v>48.0116564631139</v>
       </c>
       <c r="G22" t="n">
-        <v>31.4282690766765</v>
+        <v>31.9702477973517</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>51.9495494011023</v>
+        <v>52.1678294778021</v>
       </c>
       <c r="G23" t="n">
-        <v>34.4855633804174</v>
+        <v>34.7611348080356</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>54.4597336191031</v>
+        <v>55.0680267192192</v>
       </c>
       <c r="G24" t="n">
-        <v>36.8714231996334</v>
+        <v>36.9335180347533</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>54.0159625343766</v>
+        <v>53.7960688516785</v>
       </c>
       <c r="G25" t="n">
-        <v>36.1571463501873</v>
+        <v>36.3987854507694</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>56.1889008315838</v>
+        <v>55.8574872414084</v>
       </c>
       <c r="G26" t="n">
-        <v>38.0908724005936</v>
+        <v>38.2935653978395</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>58.1464732252841</v>
+        <v>57.6065202347101</v>
       </c>
       <c r="G27" t="n">
-        <v>39.0333360891892</v>
+        <v>39.2647682945716</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>57.1044135871956</v>
+        <v>56.574949582039</v>
       </c>
       <c r="G28" t="n">
-        <v>39.1509555148018</v>
+        <v>39.2226135608547</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>60.7597708843263</v>
+        <v>60.9608233965534</v>
       </c>
       <c r="G29" t="n">
-        <v>42.1354278037998</v>
+        <v>42.5076346977086</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>58.8631106342767</v>
+        <v>59.1823846171696</v>
       </c>
       <c r="G30" t="n">
-        <v>41.0755209182261</v>
+        <v>41.1996076187998</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>59.8720383515963</v>
+        <v>60.4749885628733</v>
       </c>
       <c r="G31" t="n">
-        <v>41.4014611561444</v>
+        <v>41.8913625354602</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.17797201825087</v>
+        <v>4.18040248729323</v>
       </c>
       <c r="G32" t="n">
-        <v>3.15896391001334</v>
+        <v>3.17819732273542</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.32091115953355</v>
+        <v>4.43016694863286</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2115008433669</v>
+        <v>3.27933472465525</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.36703021998228</v>
+        <v>4.4805177556033</v>
       </c>
       <c r="G34" t="n">
-        <v>3.29180194612468</v>
+        <v>3.29225840529249</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.63265307089014</v>
+        <v>4.55599798081732</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45089352224451</v>
+        <v>3.41250410502885</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.33610487189448</v>
+        <v>4.3142332058646</v>
       </c>
       <c r="G36" t="n">
-        <v>3.37988896094738</v>
+        <v>3.37393999727367</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.69723500978083</v>
+        <v>4.76112338463227</v>
       </c>
       <c r="G37" t="n">
-        <v>3.55581759801513</v>
+        <v>3.52114964168355</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.41272961167043</v>
+        <v>4.48119551155733</v>
       </c>
       <c r="G38" t="n">
-        <v>3.29726279171035</v>
+        <v>3.37695424274748</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.63940629910232</v>
+        <v>4.62138174209677</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4963216509892</v>
+        <v>3.53152817059388</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.28637276296704</v>
+        <v>4.4015655566488</v>
       </c>
       <c r="G40" t="n">
-        <v>3.30852178857876</v>
+        <v>3.33384473100476</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.58311437806932</v>
+        <v>4.60468934106563</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3342564237218</v>
+        <v>3.36396908494763</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.946</v>
+        <v>0.9445</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9675</v>
+        <v>0.9685</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9275</v>
+        <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.952</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9295</v>
+        <v>0.9255</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9595</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9235</v>
+        <v>0.925</v>
       </c>
       <c r="G45" t="n">
-        <v>0.948</v>
+        <v>0.9505</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9305</v>
+        <v>0.929</v>
       </c>
       <c r="G46" t="n">
-        <v>0.954</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9285</v>
+        <v>0.9275</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9565</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.927</v>
+        <v>0.93</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9625</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9295</v>
+        <v>0.928</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9575</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="50">
@@ -1523,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
       <c r="G50" t="n">
         <v>0.9535</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9105</v>
+        <v>0.9195</v>
       </c>
       <c r="G51" t="n">
-        <v>0.946</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.2168356736919</v>
+        <v>26.2592868407089</v>
       </c>
       <c r="G52" t="n">
-        <v>24.4228983475119</v>
+        <v>24.5625867506697</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.19199199894</v>
+        <v>26.2370851176644</v>
       </c>
       <c r="G53" t="n">
-        <v>24.6109328782373</v>
+        <v>24.5137688877503</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.3036324079345</v>
+        <v>26.3109360450263</v>
       </c>
       <c r="G54" t="n">
-        <v>24.7238106323753</v>
+        <v>24.8108278000036</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.4393880175646</v>
+        <v>26.3074421994105</v>
       </c>
       <c r="G55" t="n">
-        <v>24.7483914161485</v>
+        <v>24.8370955190862</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.4793468076599</v>
+        <v>26.509769133852</v>
       </c>
       <c r="G56" t="n">
-        <v>24.8697332663029</v>
+        <v>24.9186588824365</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.6120521958241</v>
+        <v>26.7195261712145</v>
       </c>
       <c r="G57" t="n">
-        <v>25.0423151584095</v>
+        <v>25.0755049713369</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.6707794040896</v>
+        <v>26.8340610334905</v>
       </c>
       <c r="G58" t="n">
-        <v>25.4378126176904</v>
+        <v>25.3946837241904</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.6479913650313</v>
+        <v>26.6484459551768</v>
       </c>
       <c r="G59" t="n">
-        <v>25.2821972122218</v>
+        <v>25.3659777134184</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.5675127288778</v>
+        <v>26.6353264456816</v>
       </c>
       <c r="G60" t="n">
-        <v>25.4046658085479</v>
+        <v>25.2522435852981</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.5966082465341</v>
+        <v>26.6724129655002</v>
       </c>
       <c r="G61" t="n">
-        <v>25.1519032385996</v>
+        <v>25.2272731973343</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>39.9982026185084</v>
+        <v>40.1934249288406</v>
       </c>
       <c r="G62" t="n">
-        <v>21.2779591145915</v>
+        <v>21.4811242915016</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>42.5434378280494</v>
+        <v>42.7241346641941</v>
       </c>
       <c r="G63" t="n">
-        <v>23.6344057438631</v>
+        <v>24.0113314900955</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>45.127168862162</v>
+        <v>45.213049951541</v>
       </c>
       <c r="G64" t="n">
-        <v>24.6366919989723</v>
+        <v>24.8734286693922</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>47.8709000352259</v>
+        <v>48.1909522287023</v>
       </c>
       <c r="G65" t="n">
-        <v>26.7572683119343</v>
+        <v>27.0313824359019</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>44.3094442879734</v>
+        <v>44.6907721358024</v>
       </c>
       <c r="G66" t="n">
-        <v>24.8823759113658</v>
+        <v>24.9779161476468</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>47.771888712847</v>
+        <v>47.5337188875682</v>
       </c>
       <c r="G67" t="n">
-        <v>26.3020840063223</v>
+        <v>26.3546191195345</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>49.8087513977978</v>
+        <v>49.8270444840151</v>
       </c>
       <c r="G68" t="n">
-        <v>27.194675569486</v>
+        <v>27.2703715894012</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>52.1294773280943</v>
+        <v>51.9766366677227</v>
       </c>
       <c r="G69" t="n">
-        <v>29.5907460886816</v>
+        <v>29.0168568252366</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>51.8576558904351</v>
+        <v>51.6556046818768</v>
       </c>
       <c r="G70" t="n">
-        <v>29.3904622854845</v>
+        <v>29.318933257832</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>53.6331970577781</v>
+        <v>53.3044754864164</v>
       </c>
       <c r="G71" t="n">
-        <v>30.5833923047805</v>
+        <v>30.5937350009341</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.05487235865702</v>
+        <v>4.12546064132067</v>
       </c>
       <c r="G72" t="n">
-        <v>2.69544127366244</v>
+        <v>2.72951739862955</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.08674945719679</v>
+        <v>4.13600380972492</v>
       </c>
       <c r="G73" t="n">
-        <v>2.68703759183588</v>
+        <v>2.76322469316615</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.26367454954683</v>
+        <v>4.35886282734968</v>
       </c>
       <c r="G74" t="n">
-        <v>2.8973115736604</v>
+        <v>2.91725773813448</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.34546528516285</v>
+        <v>4.39095507702972</v>
       </c>
       <c r="G75" t="n">
-        <v>2.95354754627471</v>
+        <v>3.00328129152727</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.06176949492398</v>
+        <v>3.9998798442455</v>
       </c>
       <c r="G76" t="n">
-        <v>2.75447776723153</v>
+        <v>2.79795238200716</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.15965201265492</v>
+        <v>4.2111621546575</v>
       </c>
       <c r="G77" t="n">
-        <v>2.81114764715427</v>
+        <v>2.82951275594661</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.3671292447212</v>
+        <v>4.37603513491793</v>
       </c>
       <c r="G78" t="n">
-        <v>2.91925752648262</v>
+        <v>2.92257577680309</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.43670734566566</v>
+        <v>4.43421080311503</v>
       </c>
       <c r="G79" t="n">
-        <v>2.85051464951911</v>
+        <v>2.87026120359033</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.28104703839406</v>
+        <v>4.25393821240418</v>
       </c>
       <c r="G80" t="n">
-        <v>2.87718712084451</v>
+        <v>2.95684750256445</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.19090842267699</v>
+        <v>4.31179169978155</v>
       </c>
       <c r="G81" t="n">
-        <v>2.95626871689318</v>
+        <v>2.89185800631875</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9185</v>
+        <v>0.9195</v>
       </c>
       <c r="G82" t="n">
-        <v>0.933</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="83">
@@ -2282,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9195</v>
+        <v>0.918</v>
       </c>
       <c r="G83" t="n">
         <v>0.934</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9205</v>
+        <v>0.9185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.935</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="G85" t="n">
-        <v>0.931</v>
+        <v>0.9305</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.896</v>
+        <v>0.9005</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9175</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.906</v>
+        <v>0.9075</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9305</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.897</v>
+        <v>0.8945</v>
       </c>
       <c r="G88" t="n">
-        <v>0.916</v>
+        <v>0.9155</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.898</v>
+        <v>0.8995</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9215</v>
+        <v>0.9195</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8985</v>
+        <v>0.902</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9245</v>
+        <v>0.9225</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9065</v>
+        <v>0.908</v>
       </c>
       <c r="G91" t="n">
-        <v>0.928</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.3327540756092</v>
+        <v>26.4627477464655</v>
       </c>
       <c r="G92" t="n">
-        <v>26.3563559281611</v>
+        <v>26.1893612247283</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.7553690117788</v>
+        <v>26.7769509503478</v>
       </c>
       <c r="G93" t="n">
-        <v>26.8404001519078</v>
+        <v>26.8923269738836</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>26.9936686345072</v>
+        <v>27.0133358104238</v>
       </c>
       <c r="G94" t="n">
-        <v>27.0253851579627</v>
+        <v>27.2752561909314</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8242956138144</v>
+        <v>26.9622575909162</v>
       </c>
       <c r="G95" t="n">
-        <v>26.9683514923179</v>
+        <v>27.2093903751755</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.0426582654778</v>
+        <v>27.1723068472261</v>
       </c>
       <c r="G96" t="n">
-        <v>27.3046634563037</v>
+        <v>27.3687656775914</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.0456073711533</v>
+        <v>27.0550224537002</v>
       </c>
       <c r="G97" t="n">
-        <v>27.0515677997623</v>
+        <v>27.3397644954097</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>26.8393521603505</v>
+        <v>26.9594292851949</v>
       </c>
       <c r="G98" t="n">
-        <v>27.2154216543862</v>
+        <v>27.2597774419803</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.0553891403367</v>
+        <v>27.1017472582288</v>
       </c>
       <c r="G99" t="n">
-        <v>27.106908246156</v>
+        <v>27.2247655668784</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.0303203441708</v>
+        <v>27.2371212805737</v>
       </c>
       <c r="G100" t="n">
-        <v>27.2911211162674</v>
+        <v>27.3363501632153</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.0684731774675</v>
+        <v>27.1972251305762</v>
       </c>
       <c r="G101" t="n">
-        <v>27.3832957773099</v>
+        <v>27.435571393005</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>39.6869701630238</v>
+        <v>39.8159935461565</v>
       </c>
       <c r="G102" t="n">
-        <v>29.1011816369582</v>
+        <v>28.877252032146</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>46.8312387257986</v>
+        <v>47.2487610877129</v>
       </c>
       <c r="G103" t="n">
-        <v>34.8313902359195</v>
+        <v>35.130250510492</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.2168944143936</v>
+        <v>49.6551707431841</v>
       </c>
       <c r="G104" t="n">
-        <v>35.5949385152576</v>
+        <v>36.0218799133415</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>51.7451796043136</v>
+        <v>52.1360478569414</v>
       </c>
       <c r="G105" t="n">
-        <v>37.4984386996517</v>
+        <v>37.5740057653913</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>53.4397829484237</v>
+        <v>54.011971778401</v>
       </c>
       <c r="G106" t="n">
-        <v>39.7423557422954</v>
+        <v>40.26985828757</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>51.7529699215513</v>
+        <v>52.1484194758865</v>
       </c>
       <c r="G107" t="n">
-        <v>36.923009819595</v>
+        <v>37.5457977445725</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>55.3959704982343</v>
+        <v>56.1338805573736</v>
       </c>
       <c r="G108" t="n">
-        <v>42.2242403531345</v>
+        <v>42.5229267980738</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>57.1516700119281</v>
+        <v>57.1053071816214</v>
       </c>
       <c r="G109" t="n">
-        <v>41.0149946294153</v>
+        <v>41.2075185114528</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>58.8684374250874</v>
+        <v>59.4802644237199</v>
       </c>
       <c r="G110" t="n">
-        <v>43.6395593724438</v>
+        <v>43.4324762440271</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>57.7824062303376</v>
+        <v>57.723185440261</v>
       </c>
       <c r="G111" t="n">
-        <v>42.1437451740007</v>
+        <v>42.5142124243441</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.00677613573977</v>
+        <v>4.07672942669137</v>
       </c>
       <c r="G112" t="n">
-        <v>3.27284433916769</v>
+        <v>3.2623375029104</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.31972834383803</v>
+        <v>4.35220382299222</v>
       </c>
       <c r="G113" t="n">
-        <v>3.43967178670801</v>
+        <v>3.49019287497154</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.48937831379135</v>
+        <v>4.33516445771089</v>
       </c>
       <c r="G114" t="n">
-        <v>3.4319277172511</v>
+        <v>3.50495901004542</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.43606907010689</v>
+        <v>4.643287150832</v>
       </c>
       <c r="G115" t="n">
-        <v>3.58625446712707</v>
+        <v>3.59302031658963</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.55712011187118</v>
+        <v>4.59559609490703</v>
       </c>
       <c r="G116" t="n">
-        <v>3.59476401535066</v>
+        <v>3.60892443072861</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.52999142812031</v>
+        <v>4.59407322043929</v>
       </c>
       <c r="G117" t="n">
-        <v>3.50130118615671</v>
+        <v>3.49002417278493</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.53281742051102</v>
+        <v>4.54900525600589</v>
       </c>
       <c r="G118" t="n">
-        <v>3.59376090395787</v>
+        <v>3.62956066683979</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.38920875399603</v>
+        <v>4.39628029318402</v>
       </c>
       <c r="G119" t="n">
-        <v>3.48844137615673</v>
+        <v>3.55814898495129</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.50796961696619</v>
+        <v>4.59049168227586</v>
       </c>
       <c r="G120" t="n">
-        <v>3.60452128249521</v>
+        <v>3.61892352939482</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.66539788440441</v>
+        <v>4.73297602692715</v>
       </c>
       <c r="G121" t="n">
-        <v>3.65174873069214</v>
+        <v>3.59881877397061</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9505</v>
+        <v>0.9475</v>
       </c>
       <c r="G122" t="n">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.932</v>
+        <v>0.9315</v>
       </c>
       <c r="G123" t="n">
-        <v>0.956</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.92</v>
+        <v>0.927</v>
       </c>
       <c r="G124" t="n">
-        <v>0.955</v>
+        <v>0.9545</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.928</v>
+        <v>0.9275</v>
       </c>
       <c r="G125" t="n">
-        <v>0.958</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9265</v>
+        <v>0.927</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9475</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="127">
@@ -3297,7 +3297,7 @@
         <v>0.918</v>
       </c>
       <c r="G127" t="n">
-        <v>0.948</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="G128" t="n">
-        <v>0.954</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9315</v>
+        <v>0.9235</v>
       </c>
       <c r="G129" t="n">
-        <v>0.957</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9245</v>
+        <v>0.918</v>
       </c>
       <c r="G130" t="n">
-        <v>0.949</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9265</v>
+        <v>0.9215</v>
       </c>
       <c r="G131" t="n">
-        <v>0.9545</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>25.9549511601385</v>
+        <v>26.0646789455388</v>
       </c>
       <c r="G132" t="n">
-        <v>24.5456388972315</v>
+        <v>24.7396768431849</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.0439357133788</v>
+        <v>26.3165931905132</v>
       </c>
       <c r="G133" t="n">
-        <v>25.0862991899034</v>
+        <v>25.1047732831957</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.3820433188009</v>
+        <v>26.475191052693</v>
       </c>
       <c r="G134" t="n">
-        <v>25.1643210709879</v>
+        <v>25.3011185883618</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.4466610214027</v>
+        <v>26.6212111476514</v>
       </c>
       <c r="G135" t="n">
-        <v>25.2808117461139</v>
+        <v>25.4347365393283</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.6612818076041</v>
+        <v>26.7523041620251</v>
       </c>
       <c r="G136" t="n">
-        <v>25.5048966257015</v>
+        <v>25.6347787212246</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.2997095326009</v>
+        <v>26.3576137085162</v>
       </c>
       <c r="G137" t="n">
-        <v>25.2688091389292</v>
+        <v>25.2620470728267</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.5087736687666</v>
+        <v>26.5239928998785</v>
       </c>
       <c r="G138" t="n">
-        <v>25.4713434786331</v>
+        <v>25.494850180477</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.4654288286077</v>
+        <v>26.5921890403855</v>
       </c>
       <c r="G139" t="n">
-        <v>25.4440125883167</v>
+        <v>25.4801468874944</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.6201825958209</v>
+        <v>26.6649741716813</v>
       </c>
       <c r="G140" t="n">
-        <v>25.6291906670221</v>
+        <v>25.800549887519</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.5210083389261</v>
+        <v>26.6669300193622</v>
       </c>
       <c r="G141" t="n">
-        <v>25.4780069417032</v>
+        <v>25.5144284149167</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>37.5360773149028</v>
+        <v>37.7560161533802</v>
       </c>
       <c r="G142" t="n">
-        <v>22.349436449643</v>
+        <v>22.5489958305451</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>43.2234092618734</v>
+        <v>43.2543302596164</v>
       </c>
       <c r="G143" t="n">
-        <v>25.8138939840296</v>
+        <v>26.055575791694</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>43.7928755617751</v>
+        <v>43.6848535500952</v>
       </c>
       <c r="G144" t="n">
-        <v>25.9810394104182</v>
+        <v>26.1851818703053</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>45.0495638069099</v>
+        <v>45.0385611595684</v>
       </c>
       <c r="G145" t="n">
-        <v>26.6602352847974</v>
+        <v>26.8590939679385</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>48.7615421669258</v>
+        <v>49.0167515192221</v>
       </c>
       <c r="G146" t="n">
-        <v>29.4433054922735</v>
+        <v>30.0852361112664</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>47.5099771540814</v>
+        <v>47.632400089222</v>
       </c>
       <c r="G147" t="n">
-        <v>28.9393412383365</v>
+        <v>29.4258421983586</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>47.9737698700139</v>
+        <v>48.7796519964776</v>
       </c>
       <c r="G148" t="n">
-        <v>29.079809032406</v>
+        <v>28.8908001106532</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>48.5507576558955</v>
+        <v>48.7240731772244</v>
       </c>
       <c r="G149" t="n">
-        <v>28.5255494854364</v>
+        <v>28.723093770745</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>50.0791240814998</v>
+        <v>49.9990196864086</v>
       </c>
       <c r="G150" t="n">
-        <v>29.8061380175608</v>
+        <v>30.0546862422036</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>46.8014915793051</v>
+        <v>46.4522028589955</v>
       </c>
       <c r="G151" t="n">
-        <v>27.9914455425218</v>
+        <v>28.58420963035</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>3.91277336032888</v>
+        <v>3.92841762108118</v>
       </c>
       <c r="G152" t="n">
-        <v>2.76059049445576</v>
+        <v>2.82554671466721</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.27012282861754</v>
+        <v>4.17780635448323</v>
       </c>
       <c r="G153" t="n">
-        <v>2.88883571517274</v>
+        <v>2.92050182163222</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.22946943546681</v>
+        <v>4.3508105649578</v>
       </c>
       <c r="G154" t="n">
-        <v>3.01365472848008</v>
+        <v>3.06534928680536</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.11521356181907</v>
+        <v>4.10528640322838</v>
       </c>
       <c r="G155" t="n">
-        <v>2.74721439587399</v>
+        <v>2.78643650594513</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.12137176502135</v>
+        <v>4.21754011411301</v>
       </c>
       <c r="G156" t="n">
-        <v>2.92090738038319</v>
+        <v>2.9739916817915</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.38231607365289</v>
+        <v>4.36895289560797</v>
       </c>
       <c r="G157" t="n">
-        <v>2.98094203899405</v>
+        <v>3.0527912340968</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.33210202930681</v>
+        <v>4.33796900462752</v>
       </c>
       <c r="G158" t="n">
-        <v>2.99017773054427</v>
+        <v>2.97518634005954</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.38753533886978</v>
+        <v>4.4208777324558</v>
       </c>
       <c r="G159" t="n">
-        <v>3.00798804143266</v>
+        <v>2.96296250554581</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.37847253702472</v>
+        <v>4.3475166098976</v>
       </c>
       <c r="G160" t="n">
-        <v>2.88058260409158</v>
+        <v>2.86329595138295</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.33444911333126</v>
+        <v>4.28844123625127</v>
       </c>
       <c r="G161" t="n">
-        <v>2.96596380430094</v>
+        <v>3.0104961692198</v>
       </c>
     </row>
   </sheetData>

--- a/DGP5.xlsx
+++ b/DGP5.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9135</v>
+        <v>0.933</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9285</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.904</v>
+        <v>0.92</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9285</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9065</v>
+        <v>0.925</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9225</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.906</v>
+        <v>0.916</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9235</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.906</v>
+        <v>0.918</v>
       </c>
       <c r="G6" t="n">
-        <v>0.919</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8965</v>
+        <v>0.911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.916</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8995</v>
+        <v>0.903</v>
       </c>
       <c r="G8" t="n">
-        <v>0.919</v>
+        <v>0.932</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.891</v>
+        <v>0.906</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9205</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9195</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.896</v>
+        <v>0.9125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.919</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.719834176232</v>
+        <v>26.6370181387633</v>
       </c>
       <c r="G12" t="n">
-        <v>26.2747794295069</v>
+        <v>25.3445532638283</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.0597810022805</v>
+        <v>26.9898199036147</v>
       </c>
       <c r="G13" t="n">
-        <v>26.7146317765972</v>
+        <v>25.9681967508483</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.3476311260602</v>
+        <v>27.1191934865292</v>
       </c>
       <c r="G14" t="n">
-        <v>26.7679481235127</v>
+        <v>25.9828849177991</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.361613325306</v>
+        <v>27.219180342685</v>
       </c>
       <c r="G15" t="n">
-        <v>27.0156438429402</v>
+        <v>26.163093056453</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.5582852576208</v>
+        <v>27.2269642871408</v>
       </c>
       <c r="G16" t="n">
-        <v>27.1594363873939</v>
+        <v>26.212021364207</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.3963285436855</v>
+        <v>26.9316745644389</v>
       </c>
       <c r="G17" t="n">
-        <v>27.0102687982163</v>
+        <v>26.2007426276692</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.5141087630111</v>
+        <v>27.1869594974936</v>
       </c>
       <c r="G18" t="n">
-        <v>27.2037451451016</v>
+        <v>26.2608283119178</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.2420306398878</v>
+        <v>27.1268489884106</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0079607031341</v>
+        <v>26.3320799369998</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.5503450245525</v>
+        <v>27.0739988339615</v>
       </c>
       <c r="G20" t="n">
-        <v>27.1825189985822</v>
+        <v>26.2838477915153</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.7985646799604</v>
+        <v>27.1284723691033</v>
       </c>
       <c r="G21" t="n">
-        <v>27.4887210467432</v>
+        <v>26.2300664575501</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>48.0116564631139</v>
+        <v>42.4961290688728</v>
       </c>
       <c r="G22" t="n">
-        <v>31.9702477973517</v>
+        <v>24.3248720408227</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>52.1678294778021</v>
+        <v>47.93419084831</v>
       </c>
       <c r="G23" t="n">
-        <v>34.7611348080356</v>
+        <v>29.2307255970231</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>55.0680267192192</v>
+        <v>50.3017357405766</v>
       </c>
       <c r="G24" t="n">
-        <v>36.9335180347533</v>
+        <v>30.2377778088044</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>53.7960688516785</v>
+        <v>51.4763045082632</v>
       </c>
       <c r="G25" t="n">
-        <v>36.3987854507694</v>
+        <v>31.3502311242514</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>55.8574872414084</v>
+        <v>50.8939807468898</v>
       </c>
       <c r="G26" t="n">
-        <v>38.2935653978395</v>
+        <v>30.7442274699396</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>57.6065202347101</v>
+        <v>50.8393869653495</v>
       </c>
       <c r="G27" t="n">
-        <v>39.2647682945716</v>
+        <v>30.9959660819965</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>56.574949582039</v>
+        <v>54.1798496081741</v>
       </c>
       <c r="G28" t="n">
-        <v>39.2226135608547</v>
+        <v>33.5248093353972</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>60.9608233965534</v>
+        <v>55.8130188266778</v>
       </c>
       <c r="G29" t="n">
-        <v>42.5076346977086</v>
+        <v>34.0370615753966</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>59.1823846171696</v>
+        <v>53.6860775847061</v>
       </c>
       <c r="G30" t="n">
-        <v>41.1996076187998</v>
+        <v>32.7506614789002</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>60.4749885628733</v>
+        <v>54.3046515237232</v>
       </c>
       <c r="G31" t="n">
-        <v>41.8913625354602</v>
+        <v>33.4355715377005</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.18040248729323</v>
+        <v>4.04727353145884</v>
       </c>
       <c r="G32" t="n">
-        <v>3.17819732273542</v>
+        <v>2.85286564274663</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.43016694863286</v>
+        <v>4.26179697295589</v>
       </c>
       <c r="G33" t="n">
-        <v>3.27933472465525</v>
+        <v>2.93215465661056</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.4805177556033</v>
+        <v>4.42115292237402</v>
       </c>
       <c r="G34" t="n">
-        <v>3.29225840529249</v>
+        <v>2.96918305020983</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.55599798081732</v>
+        <v>4.56540666323311</v>
       </c>
       <c r="G35" t="n">
-        <v>3.41250410502885</v>
+        <v>3.1352025745456</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.3142332058646</v>
+        <v>4.39953866889378</v>
       </c>
       <c r="G36" t="n">
-        <v>3.37393999727367</v>
+        <v>3.11471870320077</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.76112338463227</v>
+        <v>4.41231400339964</v>
       </c>
       <c r="G37" t="n">
-        <v>3.52114964168355</v>
+        <v>3.18892814245138</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.48119551155733</v>
+        <v>4.6664424957232</v>
       </c>
       <c r="G38" t="n">
-        <v>3.37695424274748</v>
+        <v>3.22125852708776</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.62138174209677</v>
+        <v>4.49128326972587</v>
       </c>
       <c r="G39" t="n">
-        <v>3.53152817059388</v>
+        <v>3.15935075170898</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.4015655566488</v>
+        <v>4.61628581199986</v>
       </c>
       <c r="G40" t="n">
-        <v>3.33384473100476</v>
+        <v>3.11428581058175</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.60468934106563</v>
+        <v>4.47693903738045</v>
       </c>
       <c r="G41" t="n">
-        <v>3.36396908494763</v>
+        <v>3.25744168359604</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9445</v>
+        <v>0.934</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9685</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.925</v>
+        <v>0.928</v>
       </c>
       <c r="G43" t="n">
-        <v>0.949</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9255</v>
+        <v>0.928</v>
       </c>
       <c r="G44" t="n">
-        <v>0.958</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.925</v>
+        <v>0.9255</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9505</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.929</v>
+        <v>0.9215</v>
       </c>
       <c r="G46" t="n">
         <v>0.9525</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9275</v>
+        <v>0.9235</v>
       </c>
       <c r="G47" t="n">
-        <v>0.954</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.93</v>
+        <v>0.9265</v>
       </c>
       <c r="G48" t="n">
-        <v>0.96</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.928</v>
+        <v>0.9245</v>
       </c>
       <c r="G49" t="n">
-        <v>0.959</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9535</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9195</v>
+        <v>0.9265</v>
       </c>
       <c r="G51" t="n">
-        <v>0.945</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.2592868407089</v>
+        <v>26.1739159012708</v>
       </c>
       <c r="G52" t="n">
-        <v>24.5625867506697</v>
+        <v>24.2967011125526</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.2370851176644</v>
+        <v>26.3533173066282</v>
       </c>
       <c r="G53" t="n">
-        <v>24.5137688877503</v>
+        <v>24.5734439454204</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.3109360450263</v>
+        <v>26.6663855326618</v>
       </c>
       <c r="G54" t="n">
-        <v>24.8108278000036</v>
+        <v>24.8730671390533</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.3074421994105</v>
+        <v>26.6143842660412</v>
       </c>
       <c r="G55" t="n">
-        <v>24.8370955190862</v>
+        <v>24.7725831654711</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.509769133852</v>
+        <v>26.5396623731853</v>
       </c>
       <c r="G56" t="n">
-        <v>24.9186588824365</v>
+        <v>24.8652181128799</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.7195261712145</v>
+        <v>26.4123507593762</v>
       </c>
       <c r="G57" t="n">
-        <v>25.0755049713369</v>
+        <v>24.7255089298311</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.8340610334905</v>
+        <v>26.6539448442053</v>
       </c>
       <c r="G58" t="n">
-        <v>25.3946837241904</v>
+        <v>24.8148907315241</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.6484459551768</v>
+        <v>26.6446427777188</v>
       </c>
       <c r="G59" t="n">
-        <v>25.3659777134184</v>
+        <v>24.7902538003729</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.6353264456816</v>
+        <v>26.7574260157556</v>
       </c>
       <c r="G60" t="n">
-        <v>25.2522435852981</v>
+        <v>25.029357373235</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.6724129655002</v>
+        <v>26.6697676508417</v>
       </c>
       <c r="G61" t="n">
-        <v>25.2272731973343</v>
+        <v>24.920994656703</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>40.1934249288406</v>
+        <v>41.53230078823</v>
       </c>
       <c r="G62" t="n">
-        <v>21.4811242915016</v>
+        <v>21.5774706396114</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>42.7241346641941</v>
+        <v>44.7776574670703</v>
       </c>
       <c r="G63" t="n">
-        <v>24.0113314900955</v>
+        <v>24.0510335155246</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>45.213049951541</v>
+        <v>47.5279487088493</v>
       </c>
       <c r="G64" t="n">
-        <v>24.8734286693922</v>
+        <v>24.9791227170662</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>48.1909522287023</v>
+        <v>52.0603237112248</v>
       </c>
       <c r="G65" t="n">
-        <v>27.0313824359019</v>
+        <v>26.7770564556493</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>44.6907721358024</v>
+        <v>50.8539500081884</v>
       </c>
       <c r="G66" t="n">
-        <v>24.9779161476468</v>
+        <v>27.0467182940565</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>47.5337188875682</v>
+        <v>47.9215631734034</v>
       </c>
       <c r="G67" t="n">
-        <v>26.3546191195345</v>
+        <v>25.641081152216</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>49.8270444840151</v>
+        <v>48.044655173716</v>
       </c>
       <c r="G68" t="n">
-        <v>27.2703715894012</v>
+        <v>25.4876295845174</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>51.9766366677227</v>
+        <v>48.3465992886161</v>
       </c>
       <c r="G69" t="n">
-        <v>29.0168568252366</v>
+        <v>25.8252032952096</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>51.6556046818768</v>
+        <v>48.1571007414058</v>
       </c>
       <c r="G70" t="n">
-        <v>29.318933257832</v>
+        <v>26.4794016352742</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>53.3044754864164</v>
+        <v>47.4624206582996</v>
       </c>
       <c r="G71" t="n">
-        <v>30.5937350009341</v>
+        <v>25.0307877298627</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.12546064132067</v>
+        <v>4.02600387988397</v>
       </c>
       <c r="G72" t="n">
-        <v>2.72951739862955</v>
+        <v>2.74949821936941</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.13600380972492</v>
+        <v>4.20841289602168</v>
       </c>
       <c r="G73" t="n">
-        <v>2.76322469316615</v>
+        <v>2.74185417740943</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.35886282734968</v>
+        <v>4.25014993311503</v>
       </c>
       <c r="G74" t="n">
-        <v>2.91725773813448</v>
+        <v>2.7478970743388</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.39095507702972</v>
+        <v>4.43326067762512</v>
       </c>
       <c r="G75" t="n">
-        <v>3.00328129152727</v>
+        <v>2.88699325659724</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>3.9998798442455</v>
+        <v>4.27573245645225</v>
       </c>
       <c r="G76" t="n">
-        <v>2.79795238200716</v>
+        <v>2.75056780037098</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.2111621546575</v>
+        <v>4.35905333297255</v>
       </c>
       <c r="G77" t="n">
-        <v>2.82951275594661</v>
+        <v>2.78941101753113</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.37603513491793</v>
+        <v>4.21565785347961</v>
       </c>
       <c r="G78" t="n">
-        <v>2.92257577680309</v>
+        <v>2.79499356551179</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.43421080311503</v>
+        <v>4.14777282628115</v>
       </c>
       <c r="G79" t="n">
-        <v>2.87026120359033</v>
+        <v>2.65716010230556</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.25393821240418</v>
+        <v>4.18512056067957</v>
       </c>
       <c r="G80" t="n">
-        <v>2.95684750256445</v>
+        <v>2.75598163851661</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.31179169978155</v>
+        <v>4.30301617432984</v>
       </c>
       <c r="G81" t="n">
-        <v>2.89185800631875</v>
+        <v>2.74436360166867</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9195</v>
+        <v>0.9245</v>
       </c>
       <c r="G82" t="n">
-        <v>0.935</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.918</v>
+        <v>0.9215</v>
       </c>
       <c r="G83" t="n">
-        <v>0.934</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2308,7 +2308,7 @@
         <v>0.9185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9375</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9305</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9005</v>
+        <v>0.9165</v>
       </c>
       <c r="G86" t="n">
-        <v>0.915</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9075</v>
+        <v>0.913</v>
       </c>
       <c r="G87" t="n">
-        <v>0.931</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8945</v>
+        <v>0.917</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9155</v>
+        <v>0.9415</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8995</v>
+        <v>0.92</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9195</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.902</v>
+        <v>0.926</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9225</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.908</v>
+        <v>0.915</v>
       </c>
       <c r="G91" t="n">
-        <v>0.929</v>
+        <v>0.939</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.4627477464655</v>
+        <v>27.2514670692294</v>
       </c>
       <c r="G92" t="n">
-        <v>26.1893612247283</v>
+        <v>26.0691660241719</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.7769509503478</v>
+        <v>27.5700235876779</v>
       </c>
       <c r="G93" t="n">
-        <v>26.8923269738836</v>
+        <v>26.6016020267401</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>27.0133358104238</v>
+        <v>27.4291773669099</v>
       </c>
       <c r="G94" t="n">
-        <v>27.2752561909314</v>
+        <v>26.5498595721475</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.9622575909162</v>
+        <v>27.4990052590857</v>
       </c>
       <c r="G95" t="n">
-        <v>27.2093903751755</v>
+        <v>26.7859169468051</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.1723068472261</v>
+        <v>27.5741697259911</v>
       </c>
       <c r="G96" t="n">
-        <v>27.3687656775914</v>
+        <v>26.7285056406821</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.0550224537002</v>
+        <v>27.3620717878861</v>
       </c>
       <c r="G97" t="n">
-        <v>27.3397644954097</v>
+        <v>26.9469467113038</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>26.9594292851949</v>
+        <v>27.4535065989726</v>
       </c>
       <c r="G98" t="n">
-        <v>27.2597774419803</v>
+        <v>26.8444360531309</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.1017472582288</v>
+        <v>27.4773517795473</v>
       </c>
       <c r="G99" t="n">
-        <v>27.2247655668784</v>
+        <v>26.6988999764628</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.2371212805737</v>
+        <v>27.6839448338709</v>
       </c>
       <c r="G100" t="n">
-        <v>27.3363501632153</v>
+        <v>26.9794946312895</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.1972251305762</v>
+        <v>27.6080370483657</v>
       </c>
       <c r="G101" t="n">
-        <v>27.435571393005</v>
+        <v>26.9008755982457</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>39.8159935461565</v>
+        <v>42.6345705751349</v>
       </c>
       <c r="G102" t="n">
-        <v>28.877252032146</v>
+        <v>26.5028997936358</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>47.2487610877129</v>
+        <v>48.9274039358976</v>
       </c>
       <c r="G103" t="n">
-        <v>35.130250510492</v>
+        <v>29.3729843498448</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.6551707431841</v>
+        <v>48.4083261413931</v>
       </c>
       <c r="G104" t="n">
-        <v>36.0218799133415</v>
+        <v>30.7771767635577</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>52.1360478569414</v>
+        <v>50.8570553034629</v>
       </c>
       <c r="G105" t="n">
-        <v>37.5740057653913</v>
+        <v>31.9106911130975</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>54.011971778401</v>
+        <v>53.0614219420491</v>
       </c>
       <c r="G106" t="n">
-        <v>40.26985828757</v>
+        <v>33.1236223380529</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>52.1484194758865</v>
+        <v>57.0813953336192</v>
       </c>
       <c r="G107" t="n">
-        <v>37.5457977445725</v>
+        <v>35.2309709211401</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>56.1338805573736</v>
+        <v>54.0959144888677</v>
       </c>
       <c r="G108" t="n">
-        <v>42.5229267980738</v>
+        <v>33.3825734159608</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>57.1053071816214</v>
+        <v>54.0005180996018</v>
       </c>
       <c r="G109" t="n">
-        <v>41.2075185114528</v>
+        <v>34.6991051749567</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>59.4802644237199</v>
+        <v>56.8853552022997</v>
       </c>
       <c r="G110" t="n">
-        <v>43.4324762440271</v>
+        <v>36.1903793901501</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>57.723185440261</v>
+        <v>55.424516907943</v>
       </c>
       <c r="G111" t="n">
-        <v>42.5142124243441</v>
+        <v>36.4626198776453</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>4.07672942669137</v>
+        <v>3.92045549298511</v>
       </c>
       <c r="G112" t="n">
-        <v>3.2623375029104</v>
+        <v>2.9435715505471</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.35220382299222</v>
+        <v>4.29995671415761</v>
       </c>
       <c r="G113" t="n">
-        <v>3.49019287497154</v>
+        <v>3.16115440618586</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.33516445771089</v>
+        <v>4.27999341422435</v>
       </c>
       <c r="G114" t="n">
-        <v>3.50495901004542</v>
+        <v>3.15929864871729</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.643287150832</v>
+        <v>4.27598558917154</v>
       </c>
       <c r="G115" t="n">
-        <v>3.59302031658963</v>
+        <v>3.21082443051084</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.59559609490703</v>
+        <v>4.40856076985353</v>
       </c>
       <c r="G116" t="n">
-        <v>3.60892443072861</v>
+        <v>3.32310470050511</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.59407322043929</v>
+        <v>4.40530699737842</v>
       </c>
       <c r="G117" t="n">
-        <v>3.49002417278493</v>
+        <v>3.29204053401073</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.54900525600589</v>
+        <v>4.52107359059904</v>
       </c>
       <c r="G118" t="n">
-        <v>3.62956066683979</v>
+        <v>3.26750215097895</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.39628029318402</v>
+        <v>4.45828521133598</v>
       </c>
       <c r="G119" t="n">
-        <v>3.55814898495129</v>
+        <v>3.24526580668398</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.59049168227586</v>
+        <v>4.46430512686988</v>
       </c>
       <c r="G120" t="n">
-        <v>3.61892352939482</v>
+        <v>3.19045469970643</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.73297602692715</v>
+        <v>4.34748400126074</v>
       </c>
       <c r="G121" t="n">
-        <v>3.59881877397061</v>
+        <v>3.20150787317817</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9475</v>
+        <v>0.941</v>
       </c>
       <c r="G122" t="n">
-        <v>0.969</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9315</v>
+        <v>0.935</v>
       </c>
       <c r="G123" t="n">
-        <v>0.955</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.927</v>
+        <v>0.932</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9545</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9275</v>
+        <v>0.9295</v>
       </c>
       <c r="G125" t="n">
-        <v>0.9565</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="126">
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.927</v>
+        <v>0.923</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9465</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.918</v>
+        <v>0.931</v>
       </c>
       <c r="G127" t="n">
-        <v>0.947</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.928</v>
+        <v>0.924</v>
       </c>
       <c r="G128" t="n">
-        <v>0.956</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9235</v>
+        <v>0.921</v>
       </c>
       <c r="G129" t="n">
-        <v>0.954</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.918</v>
+        <v>0.933</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9485</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9215</v>
+        <v>0.9275</v>
       </c>
       <c r="G131" t="n">
-        <v>0.952</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.0646789455388</v>
+        <v>25.8960727639521</v>
       </c>
       <c r="G132" t="n">
-        <v>24.7396768431849</v>
+        <v>24.4123936866972</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.3165931905132</v>
+        <v>26.0063219832955</v>
       </c>
       <c r="G133" t="n">
-        <v>25.1047732831957</v>
+        <v>24.5952421202919</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.475191052693</v>
+        <v>26.2256135442705</v>
       </c>
       <c r="G134" t="n">
-        <v>25.3011185883618</v>
+        <v>24.9581019231946</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.6212111476514</v>
+        <v>26.2956397227677</v>
       </c>
       <c r="G135" t="n">
-        <v>25.4347365393283</v>
+        <v>24.9651500047902</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.7523041620251</v>
+        <v>26.4375114609131</v>
       </c>
       <c r="G136" t="n">
-        <v>25.6347787212246</v>
+        <v>24.9382061768377</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.3576137085162</v>
+        <v>26.652676379913</v>
       </c>
       <c r="G137" t="n">
-        <v>25.2620470728267</v>
+        <v>25.0592365156292</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.5239928998785</v>
+        <v>26.2424901598812</v>
       </c>
       <c r="G138" t="n">
-        <v>25.494850180477</v>
+        <v>25.008771699126</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.5921890403855</v>
+        <v>26.5336488043487</v>
       </c>
       <c r="G139" t="n">
-        <v>25.4801468874944</v>
+        <v>24.9010478646996</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.6649741716813</v>
+        <v>26.7364847581526</v>
       </c>
       <c r="G140" t="n">
-        <v>25.800549887519</v>
+        <v>25.3535776430519</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.6669300193622</v>
+        <v>26.6678711700469</v>
       </c>
       <c r="G141" t="n">
-        <v>25.5144284149167</v>
+        <v>25.2031087037884</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>37.7560161533802</v>
+        <v>38.6593267248097</v>
       </c>
       <c r="G142" t="n">
-        <v>22.5489958305451</v>
+        <v>21.3251680295826</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>43.2543302596164</v>
+        <v>41.4876068630669</v>
       </c>
       <c r="G143" t="n">
-        <v>26.055575791694</v>
+        <v>23.1262074070184</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>43.6848535500952</v>
+        <v>43.2422010856528</v>
       </c>
       <c r="G144" t="n">
-        <v>26.1851818703053</v>
+        <v>24.8112620690559</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>45.0385611595684</v>
+        <v>44.2819993670449</v>
       </c>
       <c r="G145" t="n">
-        <v>26.8590939679385</v>
+        <v>26.7514329943436</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>49.0167515192221</v>
+        <v>46.5757917359023</v>
       </c>
       <c r="G146" t="n">
-        <v>30.0852361112664</v>
+        <v>26.7216086493561</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>47.632400089222</v>
+        <v>46.4717689138526</v>
       </c>
       <c r="G147" t="n">
-        <v>29.4258421983586</v>
+        <v>25.4993634329987</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>48.7796519964776</v>
+        <v>47.4690944782163</v>
       </c>
       <c r="G148" t="n">
-        <v>28.8908001106532</v>
+        <v>26.6780670482126</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>48.7240731772244</v>
+        <v>47.6635272814898</v>
       </c>
       <c r="G149" t="n">
-        <v>28.723093770745</v>
+        <v>27.0541006681909</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>49.9990196864086</v>
+        <v>46.7769096344658</v>
       </c>
       <c r="G150" t="n">
-        <v>30.0546862422036</v>
+        <v>26.6899673397122</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>46.4522028589955</v>
+        <v>49.026025085643</v>
       </c>
       <c r="G151" t="n">
-        <v>28.58420963035</v>
+        <v>27.7800587699012</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>3.92841762108118</v>
+        <v>4.08290231843482</v>
       </c>
       <c r="G152" t="n">
-        <v>2.82554671466721</v>
+        <v>2.77419751602941</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.17780635448323</v>
+        <v>4.25431390666186</v>
       </c>
       <c r="G153" t="n">
-        <v>2.92050182163222</v>
+        <v>2.84590729058583</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.3508105649578</v>
+        <v>4.32329695314483</v>
       </c>
       <c r="G154" t="n">
-        <v>3.06534928680536</v>
+        <v>2.89430920818628</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.10528640322838</v>
+        <v>4.25357491234412</v>
       </c>
       <c r="G155" t="n">
-        <v>2.78643650594513</v>
+        <v>2.93705897808936</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.21754011411301</v>
+        <v>4.31588778099164</v>
       </c>
       <c r="G156" t="n">
-        <v>2.9739916817915</v>
+        <v>2.9454819851623</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.36895289560797</v>
+        <v>4.26320435152393</v>
       </c>
       <c r="G157" t="n">
-        <v>3.0527912340968</v>
+        <v>2.74272783670835</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.33796900462752</v>
+        <v>4.35948554904297</v>
       </c>
       <c r="G158" t="n">
-        <v>2.97518634005954</v>
+        <v>2.99771309306015</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.4208777324558</v>
+        <v>4.27717501012605</v>
       </c>
       <c r="G159" t="n">
-        <v>2.96296250554581</v>
+        <v>2.96901401688739</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.3475166098976</v>
+        <v>4.39869017064219</v>
       </c>
       <c r="G160" t="n">
-        <v>2.86329595138295</v>
+        <v>2.88095137354365</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.28844123625127</v>
+        <v>4.27171265411365</v>
       </c>
       <c r="G161" t="n">
-        <v>3.0104961692198</v>
+        <v>2.87509982681483</v>
       </c>
     </row>
   </sheetData>
